--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Hhip.xlsx
@@ -85,10 +85,10 @@
     <t>Hhip</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,31 +549,31 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.142069</v>
+        <v>0.2956425</v>
       </c>
       <c r="N2">
-        <v>0.426207</v>
+        <v>0.5912849999999999</v>
       </c>
       <c r="O2">
-        <v>0.1364551007020182</v>
+        <v>0.179122830242808</v>
       </c>
       <c r="P2">
-        <v>0.1806547461359297</v>
+        <v>0.1717318139150154</v>
       </c>
       <c r="Q2">
-        <v>0.002208841455666667</v>
+        <v>0.004596551042499999</v>
       </c>
       <c r="R2">
-        <v>0.019879573101</v>
+        <v>0.02757930625499999</v>
       </c>
       <c r="S2">
-        <v>0.1364551007020182</v>
+        <v>0.179122830242808</v>
       </c>
       <c r="T2">
-        <v>0.1806547461359297</v>
+        <v>0.1717318139150154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -611,31 +611,31 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.7641880000000001</v>
+        <v>0.142069</v>
       </c>
       <c r="N3">
-        <v>1.528376</v>
+        <v>0.426207</v>
       </c>
       <c r="O3">
-        <v>0.7339908811582677</v>
+        <v>0.08607626227543567</v>
       </c>
       <c r="P3">
-        <v>0.6478269439034264</v>
+        <v>0.1237868391947656</v>
       </c>
       <c r="Q3">
-        <v>0.01188134029466667</v>
+        <v>0.002208841455666667</v>
       </c>
       <c r="R3">
-        <v>0.07128804176800002</v>
+        <v>0.019879573101</v>
       </c>
       <c r="S3">
-        <v>0.7339908811582677</v>
+        <v>0.08607626227543567</v>
       </c>
       <c r="T3">
-        <v>0.6478269439034264</v>
+        <v>0.1237868391947656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,31 +673,31 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.134884</v>
+        <v>1.21279</v>
       </c>
       <c r="N4">
-        <v>0.404652</v>
+        <v>2.42558</v>
       </c>
       <c r="O4">
-        <v>0.129554018139714</v>
+        <v>0.7348009074817563</v>
       </c>
       <c r="P4">
-        <v>0.171518309960644</v>
+        <v>0.704481346890219</v>
       </c>
       <c r="Q4">
-        <v>0.002097131470666667</v>
+        <v>0.01885605465666667</v>
       </c>
       <c r="R4">
-        <v>0.018874183236</v>
+        <v>0.11313632794</v>
       </c>
       <c r="S4">
-        <v>0.129554018139714</v>
+        <v>0.7348009074817563</v>
       </c>
       <c r="T4">
-        <v>0.171518309960644</v>
+        <v>0.704481346890219</v>
       </c>
     </row>
   </sheetData>
